--- a/biology/Mycologie/Lagenidium_giganteum/Lagenidium_giganteum.xlsx
+++ b/biology/Mycologie/Lagenidium_giganteum/Lagenidium_giganteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lagenidium giganteum est une espèce de champignons entomopathogènes de la classe des Oomycota qui est un parasite facultatif des stades larvaires de nombreuses espèces de moustiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagenidium giganteum est une espèce de champignons entomopathogènes de la classe des Oomycota qui est un parasite facultatif des stades larvaires de nombreuses espèces de moustiques.
 Cet oomycète est l'objet d'études aux États-Unis en vue de son utilisation comme agent de lutte biologique contre les moustiques
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 mai 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 mai 2014) :
 forme Lagenidium giganteum f. caninum</t>
         </is>
       </c>
